--- a/Document/Final/2021-2022-HK1-Group04-Project Evaluation.xlsx
+++ b/Document/Final/2021-2022-HK1-Group04-Project Evaluation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\HCMUS\3 - Junior\Term I\Java Programming\Project\W06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA98C50-F8FB-41E5-9414-B0279E3E1A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF0D70A-438A-4E1A-A332-22CEC93B2480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22248" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
   <si>
     <t>Course</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Testing - User</t>
   </si>
   <si>
-    <t>Product Quality Control</t>
-  </si>
-  <si>
     <t>System Analysis</t>
   </si>
   <si>
@@ -231,6 +228,99 @@
   </si>
   <si>
     <t>Task Types</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/10HLIe_2pGbQ0ghH14B3Woo-gE91TB9mZ?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1EUNNJU2VGQ1MP367ETDRQFlGvYyLBql8?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1k_6a1CMh6BfW6-4FVxXuilamb_Qjf5eJ?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1kzpa-8tX4lb9Ae35pmmL5N0hdO0hytVu?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/12Q6YnAp-4MqAkgQ3Dd1fX4QF1MM8WqDa?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/10VnFJTxCeRD0dy0nEVrlI3EtFDmdlknZ?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1nk3WKd_nhQIY1E8NeBU_WASUxOXphHPX?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1dWvtuS6KUnkOkNgeCJm3z-w2OMMQbvx4?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1kPhW-Jjtm6z51Qblu8tvOySivNoPwMhp?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1SXa0Wr6gftrJRQ0iV6x_waXluZDK6k-Q?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1lR9vxkMMKsvtsliDwWqbtfxz0-p_VVSs?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1OJtb8TDCbKQPEgRd48ntBpti8FkjR76h?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/185rcgXCl2fO1Soiur317G85cAEBdszfk?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1l7JMxjlz89gPKGiLmsJADJnmRBkOOtHh?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1TlT9qwJ9l-DCKG-E79E8M_Nl71Cl_oZb?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1aDCvGmAQQjOPSbof_aRqFfPCBRrZ2F9f?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1mnwQHxKjFDWcyQAIItAoWWZTBeksDldW?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1CKshVRFK1WkVjK3viXO1QloYQmLqr05C?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1wrr3OnVcNWSELX0Yk5Vy-81lZSvNNo7q?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1QD3mK5dz0xGu-QGUXoxHjcj5Q1uGh2k2?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1X8asXA8COasni9Hh2WvxybtDzU6OkvRx?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1bblXeuwYd5xPSMEciannALE8mSIyzXxu?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1Uev1tz_dDZdHy9-NfntLBtCVuJ2m6a7w?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/14W7b7a6YfHSIrXvkChgFx1fSAR7vjuWJ?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1ZZgpggxKmr_EJH-oZvsNGtlFgpBE-dCW?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1LRGnNdHsKsGTyeJ_QAQn_VThTbNXS_Sn?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1POlRE7cIYluLN5umDZtgkTFbuYGAFa5z?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1akySQQ4sG1Pt6wrh58PJL4FQ-u0KZI4o?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1QtcwHW03-yoU-faa1Q3jONm5hJ8ATEVG?usp=sharing</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1i3GzBZsLlyEPxgaFAOiBOtH94o9Og0IT?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -287,17 +377,17 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="10">
@@ -365,8 +455,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -395,19 +486,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -443,14 +521,28 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -669,8 +761,8 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D17:D21"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -696,15 +788,15 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
@@ -722,7 +814,7 @@
       </c>
       <c r="D7" s="4">
         <f>SUM(D17:D25)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -731,7 +823,7 @@
       </c>
       <c r="D8" s="4">
         <f>SUM(F17:F25)</f>
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -740,7 +832,7 @@
       </c>
       <c r="D9" s="4">
         <f>SUM(H17:H25)</f>
-        <v>100</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -749,7 +841,7 @@
       </c>
       <c r="D10" s="5">
         <f>MAX((J17:J25))</f>
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -761,32 +853,32 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -841,24 +933,24 @@
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E21" si="0">IF($D$7=0, 0, D17/$D$7)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F17" s="9">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" ref="G17:G21" si="1">IF($D$8=0, 0, F17/$D$8)</f>
-        <v>0.2</v>
+        <v>0.33727810650887574</v>
       </c>
       <c r="H17" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" ref="I17:I21" si="2">IF($D$9 = 0, 0, H17/$D$9)</f>
-        <v>0.2</v>
+        <v>0.33898305084745761</v>
       </c>
       <c r="J17" s="11">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" ref="K17:K21" si="3">IF(J17=$D$10, $D$11, ROUND(2 * ($D$11 - 1 * $D$11 * (1-J17/$D$10)),0)/2)</f>
@@ -881,24 +973,24 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F18" s="9">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.33136094674556216</v>
       </c>
       <c r="H18" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J18" s="11">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" si="3"/>
@@ -921,28 +1013,28 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F19" s="9">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.33136094674556216</v>
       </c>
       <c r="H19" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I19" s="10">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.32768361581920902</v>
       </c>
       <c r="J19" s="11">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="L19" s="4"/>
     </row>
@@ -950,33 +1042,25 @@
       <c r="A20" s="9">
         <v>4</v>
       </c>
-      <c r="D20" s="9">
-        <v>10</v>
-      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="9">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="H20" s="9">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="10">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="J20" s="11">
-        <v>0.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" s="11"/>
       <c r="K20" s="12">
         <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4"/>
     </row>
@@ -984,30 +1068,22 @@
       <c r="A21" s="9">
         <v>5</v>
       </c>
-      <c r="D21" s="9">
-        <v>10</v>
-      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="5">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="F21" s="9">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="H21" s="9">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" s="9"/>
       <c r="I21" s="10">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="J21" s="11">
         <v>0</v>
       </c>
+      <c r="J21" s="11"/>
       <c r="K21" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1031,9 +1107,9 @@
   </sheetPr>
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31:D36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1044,47 +1120,47 @@
     <col min="6" max="6" width="114.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
     </row>
-    <row r="3" spans="1:6" s="22" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="D3" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="22" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="D4" s="23" t="s">
+    <row r="3" spans="1:6" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="D3" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="D4" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="D5" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="22" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="D5" s="24" t="s">
+    <row r="6" spans="1:6" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="D6" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="22" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="D6" s="26" t="s">
+    <row r="7" spans="1:6" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="D7" s="20" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="22" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="D7" s="25" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1095,7 +1171,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -1125,15 +1201,17 @@
       <c r="C10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="15">
         <v>8</v>
       </c>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2</v>
       </c>
@@ -1143,13 +1221,15 @@
       <c r="C11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>55</v>
+      <c r="D11" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="E11" s="15">
         <v>6</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="33" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
@@ -1161,15 +1241,17 @@
       <c r="C12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="22" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="15">
         <v>8</v>
       </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>4</v>
       </c>
@@ -1179,15 +1261,17 @@
       <c r="C13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="15">
         <v>6</v>
       </c>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>5</v>
       </c>
@@ -1197,15 +1281,17 @@
       <c r="C14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="22" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="15">
         <v>5</v>
       </c>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>6</v>
       </c>
@@ -1215,15 +1301,17 @@
       <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="15">
         <v>4</v>
       </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>7</v>
       </c>
@@ -1233,15 +1321,17 @@
       <c r="C16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="15">
         <v>6</v>
       </c>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>8</v>
       </c>
@@ -1251,15 +1341,17 @@
       <c r="C17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="22" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="15">
         <v>8</v>
       </c>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>9</v>
       </c>
@@ -1269,15 +1361,17 @@
       <c r="C18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="15">
         <v>6</v>
       </c>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>10</v>
       </c>
@@ -1287,15 +1381,17 @@
       <c r="C19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="22" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="15">
         <v>6</v>
       </c>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>11</v>
       </c>
@@ -1305,15 +1401,17 @@
       <c r="C20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>56</v>
+      <c r="D20" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="E20" s="15">
         <v>8</v>
       </c>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>12</v>
       </c>
@@ -1323,15 +1421,17 @@
       <c r="C21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="15">
-        <v>24</v>
-      </c>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>13</v>
       </c>
@@ -1341,15 +1441,17 @@
       <c r="C22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="24" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="15">
         <v>18</v>
       </c>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>14</v>
       </c>
@@ -1359,15 +1461,17 @@
       <c r="C23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>57</v>
+      <c r="D23" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="E23" s="15">
         <v>8</v>
       </c>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>15</v>
       </c>
@@ -1377,15 +1481,17 @@
       <c r="C24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>58</v>
+      <c r="D24" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="E24" s="15">
         <v>12</v>
       </c>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>16</v>
       </c>
@@ -1395,15 +1501,17 @@
       <c r="C25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>59</v>
+      <c r="D25" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="E25" s="15">
         <v>12</v>
       </c>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>17</v>
       </c>
@@ -1413,15 +1521,17 @@
       <c r="C26" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="23" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="15">
         <v>18</v>
       </c>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>18</v>
       </c>
@@ -1431,15 +1541,17 @@
       <c r="C27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="23" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="15">
-        <v>10</v>
-      </c>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>19</v>
       </c>
@@ -1449,15 +1561,17 @@
       <c r="C28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="15">
-        <v>8</v>
-      </c>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>20</v>
       </c>
@@ -1467,15 +1581,17 @@
       <c r="C29" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E29" s="15">
-        <v>8</v>
-      </c>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>21</v>
       </c>
@@ -1485,15 +1601,17 @@
       <c r="C30" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>60</v>
+      <c r="D30" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="E30" s="15">
-        <v>16</v>
-      </c>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>22</v>
       </c>
@@ -1503,15 +1621,17 @@
       <c r="C31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="25" t="s">
         <v>46</v>
       </c>
       <c r="E31" s="15">
-        <v>10</v>
-      </c>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>23</v>
       </c>
@@ -1521,15 +1641,17 @@
       <c r="C32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="25" t="s">
         <v>47</v>
       </c>
       <c r="E32" s="15">
         <v>20</v>
       </c>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>24</v>
       </c>
@@ -1539,15 +1661,17 @@
       <c r="C33" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="15">
-        <v>12</v>
-      </c>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>25</v>
       </c>
@@ -1557,15 +1681,17 @@
       <c r="C34" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E34" s="15">
         <v>16</v>
       </c>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>26</v>
       </c>
@@ -1575,15 +1701,17 @@
       <c r="C35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="25" t="s">
         <v>50</v>
       </c>
       <c r="E35" s="15">
         <v>20</v>
       </c>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>27</v>
       </c>
@@ -1593,15 +1721,17 @@
       <c r="C36" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="15">
         <v>8</v>
       </c>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>28</v>
       </c>
@@ -1611,15 +1741,17 @@
       <c r="C37" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="26" t="s">
         <v>52</v>
       </c>
       <c r="E37" s="15">
         <v>12</v>
       </c>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>29</v>
       </c>
@@ -1629,15 +1761,17 @@
       <c r="C38" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E38" s="15">
         <v>12</v>
       </c>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>30</v>
       </c>
@@ -1647,15 +1781,17 @@
       <c r="C39" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="31" t="s">
-        <v>54</v>
+      <c r="D39" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="E39" s="15">
         <v>8</v>
       </c>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>31</v>
       </c>
@@ -1665,7 +1801,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>32</v>
       </c>
@@ -1675,7 +1811,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>33</v>
       </c>
@@ -1685,7 +1821,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>34</v>
       </c>
@@ -1695,7 +1831,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>35</v>
       </c>
@@ -1705,7 +1841,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>36</v>
       </c>
@@ -1715,7 +1851,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>37</v>
       </c>
@@ -1725,7 +1861,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>38</v>
       </c>
@@ -1735,7 +1871,7 @@
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>39</v>
       </c>
@@ -1745,7 +1881,7 @@
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>40</v>
       </c>
@@ -1755,7 +1891,7 @@
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>41</v>
       </c>
@@ -1765,7 +1901,7 @@
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>42</v>
       </c>
@@ -1775,7 +1911,7 @@
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>43</v>
       </c>
@@ -1785,7 +1921,7 @@
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>44</v>
       </c>
@@ -1795,7 +1931,7 @@
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>45</v>
       </c>
@@ -1805,7 +1941,7 @@
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>46</v>
       </c>
@@ -1815,7 +1951,7 @@
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>47</v>
       </c>
@@ -1825,7 +1961,7 @@
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>48</v>
       </c>
@@ -1835,7 +1971,7 @@
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>49</v>
       </c>
@@ -1845,7 +1981,7 @@
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>50</v>
       </c>
@@ -1855,7 +1991,7 @@
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>51</v>
       </c>
@@ -1865,7 +2001,7 @@
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>52</v>
       </c>
@@ -1875,7 +2011,7 @@
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>53</v>
       </c>
@@ -1885,7 +2021,7 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>54</v>
       </c>
@@ -1895,7 +2031,7 @@
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>55</v>
       </c>
@@ -1905,7 +2041,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>56</v>
       </c>
@@ -1915,7 +2051,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>57</v>
       </c>
@@ -1925,7 +2061,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>58</v>
       </c>
@@ -1935,7 +2071,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>59</v>
       </c>
@@ -1945,7 +2081,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>60</v>
       </c>
@@ -1955,7 +2091,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>61</v>
       </c>
@@ -1965,7 +2101,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>62</v>
       </c>
@@ -1975,7 +2111,7 @@
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>63</v>
       </c>
@@ -1985,7 +2121,7 @@
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>64</v>
       </c>
@@ -1995,7 +2131,7 @@
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>65</v>
       </c>
@@ -2005,7 +2141,7 @@
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>66</v>
       </c>
@@ -2015,7 +2151,7 @@
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>67</v>
       </c>
@@ -2025,7 +2161,7 @@
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>68</v>
       </c>
@@ -2035,7 +2171,7 @@
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>69</v>
       </c>
@@ -2045,7 +2181,7 @@
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>70</v>
       </c>
@@ -2055,7 +2191,7 @@
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>71</v>
       </c>
@@ -2065,7 +2201,7 @@
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>72</v>
       </c>
@@ -2075,7 +2211,7 @@
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>73</v>
       </c>
@@ -2085,7 +2221,7 @@
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>74</v>
       </c>
@@ -2095,7 +2231,7 @@
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>75</v>
       </c>
@@ -2105,7 +2241,7 @@
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>76</v>
       </c>
@@ -2115,7 +2251,7 @@
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>77</v>
       </c>
@@ -2125,7 +2261,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>78</v>
       </c>
@@ -2135,7 +2271,7 @@
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>79</v>
       </c>
@@ -2145,7 +2281,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>80</v>
       </c>
@@ -2155,7 +2291,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>81</v>
       </c>
@@ -2165,7 +2301,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>82</v>
       </c>
@@ -2175,7 +2311,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>83</v>
       </c>
@@ -2185,7 +2321,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>84</v>
       </c>
@@ -2195,7 +2331,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>85</v>
       </c>
@@ -2205,7 +2341,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>86</v>
       </c>
@@ -2215,7 +2351,7 @@
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>87</v>
       </c>
@@ -2225,7 +2361,7 @@
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>88</v>
       </c>
@@ -2235,7 +2371,7 @@
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>89</v>
       </c>
@@ -2245,7 +2381,7 @@
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>90</v>
       </c>
@@ -2255,7 +2391,7 @@
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>91</v>
       </c>
@@ -2265,7 +2401,7 @@
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>92</v>
       </c>
@@ -2275,7 +2411,7 @@
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>93</v>
       </c>
@@ -2285,7 +2421,7 @@
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>94</v>
       </c>
@@ -2295,7 +2431,7 @@
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
         <v>95</v>
       </c>
@@ -2305,7 +2441,7 @@
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>96</v>
       </c>
@@ -2315,7 +2451,7 @@
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
         <v>97</v>
       </c>
@@ -2325,7 +2461,7 @@
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>98</v>
       </c>
@@ -2335,7 +2471,7 @@
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>99</v>
       </c>
@@ -2345,7 +2481,7 @@
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>100</v>
       </c>
@@ -2355,7 +2491,7 @@
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
@@ -2366,6 +2502,38 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F36" r:id="rId1" xr:uid="{00105CBD-D567-4E71-85DB-D21168280D3F}"/>
+    <hyperlink ref="F35" r:id="rId2" xr:uid="{3A3A9004-7903-4271-8F7A-37A953767FF9}"/>
+    <hyperlink ref="F34" r:id="rId3" xr:uid="{72D88F1D-FA81-4130-A7EA-F9A7462F98C3}"/>
+    <hyperlink ref="F33" r:id="rId4" xr:uid="{BA8AD8FF-33F1-4D1B-BE40-9E187A9B420D}"/>
+    <hyperlink ref="F32" r:id="rId5" xr:uid="{B12D0EBF-CA78-4A32-9299-670BA9F22DAA}"/>
+    <hyperlink ref="F31" r:id="rId6" xr:uid="{00B118CB-CB99-4147-894B-3C2DB622EA61}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{B0173E70-A7B7-4289-BF80-07FFFAD69B23}"/>
+    <hyperlink ref="F12" r:id="rId8" xr:uid="{B0FC423C-2E8A-46B8-804D-56E1666C1925}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{8900F3E4-A1A4-48A3-AA70-008A4545D221}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{4888713D-39BF-4549-9EA2-2E33DDC8A905}"/>
+    <hyperlink ref="F15" r:id="rId11" xr:uid="{321862EF-607C-4B0A-A381-0871177F40B8}"/>
+    <hyperlink ref="F16" r:id="rId12" xr:uid="{F99830B5-24AC-4632-960A-4ED4954F56A2}"/>
+    <hyperlink ref="F17" r:id="rId13" xr:uid="{C2C16C4B-5E3F-4717-A3DB-D4B51C54F468}"/>
+    <hyperlink ref="F18" r:id="rId14" xr:uid="{B385DD88-82A6-48EF-8D06-98EDFBCA8C2F}"/>
+    <hyperlink ref="F19" r:id="rId15" xr:uid="{4B394D18-3D0F-41D4-B6AC-34D504F12E61}"/>
+    <hyperlink ref="F20" r:id="rId16" xr:uid="{C6F3BC54-F64C-4F3D-9712-0A398DD06B0F}"/>
+    <hyperlink ref="F21" r:id="rId17" xr:uid="{E63E750F-4738-46B1-BBD2-E062E4ADEF6F}"/>
+    <hyperlink ref="F22" r:id="rId18" xr:uid="{7C09272A-C875-4601-90F2-AFE1C964A4B8}"/>
+    <hyperlink ref="F23" r:id="rId19" xr:uid="{F1B7A932-FE72-4D4A-B808-ED1AB650AEE7}"/>
+    <hyperlink ref="F24" r:id="rId20" xr:uid="{F398CF06-4166-4759-BAAD-3E797A37C53B}"/>
+    <hyperlink ref="F25" r:id="rId21" xr:uid="{F0471A90-5C7C-4233-8BFD-24BDD5A122D8}"/>
+    <hyperlink ref="F26" r:id="rId22" xr:uid="{DDB9618D-8493-44D9-B221-D0FB8B25A54D}"/>
+    <hyperlink ref="F27" r:id="rId23" xr:uid="{435CF36F-D3E0-4D66-934E-7DCBBEB4092F}"/>
+    <hyperlink ref="F28" r:id="rId24" xr:uid="{B29AF806-CA96-4F4F-BF6F-E1D3E063355F}"/>
+    <hyperlink ref="F29" r:id="rId25" xr:uid="{6420ACCC-F2E6-4E4F-B795-69BFEE38D4A3}"/>
+    <hyperlink ref="F30" r:id="rId26" xr:uid="{D9F2E847-FDD6-466F-A099-6CC0BC2966A5}"/>
+    <hyperlink ref="F37" r:id="rId27" xr:uid="{DC997F55-0DF2-432A-9788-659FCCC55919}"/>
+    <hyperlink ref="F38" r:id="rId28" xr:uid="{3EC2371D-4F2E-4495-891B-20D7F2B56E32}"/>
+    <hyperlink ref="F11" r:id="rId29" xr:uid="{DBF338F0-E7DC-4213-9B3D-C877D35D3CA2}"/>
+    <hyperlink ref="F39" r:id="rId30" xr:uid="{1A762D69-178E-443C-90AC-D3D0DDA959B0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/Final/2021-2022-HK1-Group04-Project Evaluation.xlsx
+++ b/Document/Final/2021-2022-HK1-Group04-Project Evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\HCMUS\3 - Junior\Term I\Java Programming\Project\W06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\HCMUS\3 - Junior\Term I\Java Programming\Project\Github\JavaProgramming_19KTPM2_Covid19ManagementSystem\Document\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF0D70A-438A-4E1A-A332-22CEC93B2480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9468E35-A450-405B-9A3D-E6EE75EA1029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22248" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22248" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
   <si>
     <t>Course</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Report #3</t>
   </si>
   <si>
-    <t>Patient Management</t>
-  </si>
-  <si>
     <t>Necessity Management</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>Statistics</t>
   </si>
   <si>
-    <t>Manager Management</t>
-  </si>
-  <si>
     <t>Treatment Location Management</t>
   </si>
   <si>
@@ -321,6 +315,45 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1i3GzBZsLlyEPxgaFAOiBOtH94o9Og0IT?usp=sharing</t>
+  </si>
+  <si>
+    <t>Display Patient</t>
+  </si>
+  <si>
+    <t>Add Patient</t>
+  </si>
+  <si>
+    <t>Update Patient</t>
+  </si>
+  <si>
+    <t>Create Manager</t>
+  </si>
+  <si>
+    <t>Manager Information Management</t>
+  </si>
+  <si>
+    <t>Initial User Password</t>
+  </si>
+  <si>
+    <t>Userflow &amp; Wireframe</t>
+  </si>
+  <si>
+    <t>Self-Evaluation Document</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1tA2JZ9QcZKRbtgEL2Wb369DS6bZBc2ne?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1OlH-dN7i4Q7QZaFtQWXc7fAAy8LSM1sx?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1ZODcGKE4B8Eh9HPWgogjCBxfCu3v2w1G?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1T_xBEwn1xzQ4CdZ5RgfXoFSMFwpIQpCv?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1qz7ZN4wOPiMYOVnAKjJ1INcDckgncJXM?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -459,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -524,6 +557,9 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,9 +573,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -761,8 +795,8 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -788,15 +822,15 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
@@ -823,7 +857,7 @@
       </c>
       <c r="D8" s="4">
         <f>SUM(F17:F25)</f>
-        <v>338</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -853,32 +887,32 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -936,11 +970,11 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F17" s="9">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" ref="G17:G21" si="1">IF($D$8=0, 0, F17/$D$8)</f>
-        <v>0.33727810650887574</v>
+        <v>0.33695652173913043</v>
       </c>
       <c r="H17" s="9">
         <v>60</v>
@@ -976,11 +1010,11 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F18" s="9">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0.33136094674556216</v>
+        <v>0.33152173913043476</v>
       </c>
       <c r="H18" s="9">
         <v>59</v>
@@ -1016,11 +1050,11 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F19" s="9">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>0.33136094674556216</v>
+        <v>0.33152173913043476</v>
       </c>
       <c r="H19" s="9">
         <v>58</v>
@@ -1107,9 +1141,9 @@
   </sheetPr>
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1121,14 +1155,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -1136,31 +1170,31 @@
     <row r="3" spans="1:6" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="D3" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="D4" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="D5" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="D6" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="D7" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1207,8 +1241,8 @@
       <c r="E10" s="15">
         <v>8</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>71</v>
+      <c r="F10" s="28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1222,13 +1256,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="15">
         <v>6</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>72</v>
+      <c r="F11" s="28" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1247,8 +1281,8 @@
       <c r="E12" s="15">
         <v>8</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>73</v>
+      <c r="F12" s="28" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1267,8 +1301,8 @@
       <c r="E13" s="15">
         <v>6</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>74</v>
+      <c r="F13" s="28" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1287,8 +1321,8 @@
       <c r="E14" s="15">
         <v>5</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>75</v>
+      <c r="F14" s="28" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1307,8 +1341,8 @@
       <c r="E15" s="15">
         <v>4</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>76</v>
+      <c r="F15" s="28" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1327,8 +1361,8 @@
       <c r="E16" s="15">
         <v>6</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>77</v>
+      <c r="F16" s="28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1347,8 +1381,8 @@
       <c r="E17" s="15">
         <v>8</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>78</v>
+      <c r="F17" s="34" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1367,8 +1401,8 @@
       <c r="E18" s="15">
         <v>6</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>79</v>
+      <c r="F18" s="28" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1387,8 +1421,8 @@
       <c r="E19" s="15">
         <v>6</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>80</v>
+      <c r="F19" s="28" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1402,13 +1436,13 @@
         <v>28</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="15">
         <v>8</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>81</v>
+      <c r="F20" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1422,13 +1456,13 @@
         <v>28</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="E21" s="15">
         <v>22</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>82</v>
+      <c r="F21" s="28" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1442,13 +1476,13 @@
         <v>28</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="15">
         <v>18</v>
       </c>
-      <c r="F22" s="33" t="s">
-        <v>83</v>
+      <c r="F22" s="28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1462,13 +1496,13 @@
         <v>28</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="15">
         <v>8</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>84</v>
+      <c r="F23" s="28" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1482,13 +1516,13 @@
         <v>28</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="E24" s="15">
         <v>12</v>
       </c>
-      <c r="F24" s="33" t="s">
-        <v>85</v>
+      <c r="F24" s="28" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1502,13 +1536,13 @@
         <v>28</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" s="15">
         <v>12</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>86</v>
+      <c r="F25" s="28" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1522,13 +1556,13 @@
         <v>29</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="15">
         <v>18</v>
       </c>
-      <c r="F26" s="33" t="s">
-        <v>87</v>
+      <c r="F26" s="28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1542,13 +1576,13 @@
         <v>29</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="15">
         <v>14</v>
       </c>
-      <c r="F27" s="33" t="s">
-        <v>88</v>
+      <c r="F27" s="28" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1562,13 +1596,13 @@
         <v>29</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="15">
         <v>12</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>89</v>
+      <c r="F28" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1582,13 +1616,13 @@
         <v>29</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="15">
         <v>12</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>90</v>
+      <c r="F29" s="28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1602,13 +1636,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E30" s="15">
         <v>18</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>91</v>
+      <c r="F30" s="28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1622,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="15">
         <v>12</v>
       </c>
-      <c r="F31" s="33" t="s">
-        <v>70</v>
+      <c r="F31" s="28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1642,13 +1676,13 @@
         <v>30</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="15">
         <v>20</v>
       </c>
-      <c r="F32" s="33" t="s">
-        <v>69</v>
+      <c r="F32" s="28" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1662,13 +1696,13 @@
         <v>30</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="15">
         <v>13</v>
       </c>
-      <c r="F33" s="33" t="s">
-        <v>68</v>
+      <c r="F33" s="28" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1682,13 +1716,13 @@
         <v>30</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="15">
         <v>16</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>67</v>
+      <c r="F34" s="28" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1702,13 +1736,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="15">
         <v>20</v>
       </c>
-      <c r="F35" s="33" t="s">
-        <v>66</v>
+      <c r="F35" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1722,13 +1756,13 @@
         <v>30</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="15">
         <v>8</v>
       </c>
-      <c r="F36" s="33" t="s">
-        <v>65</v>
+      <c r="F36" s="28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1742,13 +1776,13 @@
         <v>28</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="15">
         <v>12</v>
       </c>
-      <c r="F37" s="33" t="s">
-        <v>92</v>
+      <c r="F37" s="28" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1762,13 +1796,13 @@
         <v>29</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="15">
         <v>12</v>
       </c>
-      <c r="F38" s="33" t="s">
-        <v>93</v>
+      <c r="F38" s="28" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1782,74 +1816,134 @@
         <v>28</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E39" s="15">
         <v>8</v>
       </c>
-      <c r="F39" s="33" t="s">
-        <v>95</v>
+      <c r="F39" s="28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>31</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="B40" s="15">
+        <v>19127038</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="15">
+        <v>6</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>32</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="B41" s="15">
+        <v>19127038</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="15">
+        <v>4</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>33</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="B42" s="15">
+        <v>19127081</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="15">
+        <v>5</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>34</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="B43" s="15">
+        <v>19127081</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="15">
+        <v>5</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>35</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="B44" s="15">
+        <v>19127311</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="15">
+        <v>8</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>36</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="B45" s="15">
+        <v>19127311</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
@@ -2515,7 +2609,7 @@
     <hyperlink ref="F14" r:id="rId10" xr:uid="{4888713D-39BF-4549-9EA2-2E33DDC8A905}"/>
     <hyperlink ref="F15" r:id="rId11" xr:uid="{321862EF-607C-4B0A-A381-0871177F40B8}"/>
     <hyperlink ref="F16" r:id="rId12" xr:uid="{F99830B5-24AC-4632-960A-4ED4954F56A2}"/>
-    <hyperlink ref="F17" r:id="rId13" xr:uid="{C2C16C4B-5E3F-4717-A3DB-D4B51C54F468}"/>
+    <hyperlink ref="F44" r:id="rId13" xr:uid="{C2C16C4B-5E3F-4717-A3DB-D4B51C54F468}"/>
     <hyperlink ref="F18" r:id="rId14" xr:uid="{B385DD88-82A6-48EF-8D06-98EDFBCA8C2F}"/>
     <hyperlink ref="F19" r:id="rId15" xr:uid="{4B394D18-3D0F-41D4-B6AC-34D504F12E61}"/>
     <hyperlink ref="F20" r:id="rId16" xr:uid="{C6F3BC54-F64C-4F3D-9712-0A398DD06B0F}"/>
@@ -2533,6 +2627,12 @@
     <hyperlink ref="F38" r:id="rId28" xr:uid="{3EC2371D-4F2E-4495-891B-20D7F2B56E32}"/>
     <hyperlink ref="F11" r:id="rId29" xr:uid="{DBF338F0-E7DC-4213-9B3D-C877D35D3CA2}"/>
     <hyperlink ref="F39" r:id="rId30" xr:uid="{1A762D69-178E-443C-90AC-D3D0DDA959B0}"/>
+    <hyperlink ref="F45" r:id="rId31" xr:uid="{867FD01E-1467-4035-9BF1-1A8BB91052FD}"/>
+    <hyperlink ref="F17" r:id="rId32" xr:uid="{DDF140D5-E369-4106-B893-8072C5EEDA58}"/>
+    <hyperlink ref="F40" r:id="rId33" xr:uid="{7A690653-D311-4D2C-AD9F-1905585650BA}"/>
+    <hyperlink ref="F41" r:id="rId34" xr:uid="{9E27CB20-191A-4AA3-B954-88CAD3841067}"/>
+    <hyperlink ref="F42" r:id="rId35" xr:uid="{CE63CF9F-E49C-4A7B-9AA8-9606BDCB36A1}"/>
+    <hyperlink ref="F43" r:id="rId36" xr:uid="{8380D084-4BF8-447A-B184-D2F4EAD9D493}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/Final/2021-2022-HK1-Group04-Project Evaluation.xlsx
+++ b/Document/Final/2021-2022-HK1-Group04-Project Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\HCMUS\3 - Junior\Term I\Java Programming\Project\Github\JavaProgramming_19KTPM2_Covid19ManagementSystem\Document\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9468E35-A450-405B-9A3D-E6EE75EA1029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70B20D-477B-4297-A8FD-9316789DDBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22248" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22248" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -560,6 +560,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,7 +574,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -795,7 +795,7 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -822,15 +822,15 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
@@ -887,32 +887,32 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -1141,9 +1141,9 @@
   </sheetPr>
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1155,14 +1155,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -1381,7 +1381,7 @@
       <c r="E17" s="15">
         <v>8</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="29" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1430,16 +1430,16 @@
         <v>11</v>
       </c>
       <c r="B20" s="15">
-        <v>19127038</v>
+        <v>19127081</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>79</v>
@@ -1870,16 +1870,16 @@
         <v>33</v>
       </c>
       <c r="B42" s="15">
-        <v>19127081</v>
+        <v>19127038</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>98</v>
       </c>
       <c r="E42" s="15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F42" s="28" t="s">
         <v>105</v>
